--- a/Working code/log.xlsx
+++ b/Working code/log.xlsx
@@ -1,35 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>P_avg</t>
+  </si>
+  <si>
+    <t>P_best</t>
+  </si>
+  <si>
+    <t>N_avg</t>
+  </si>
+  <si>
+    <t>N_best</t>
+  </si>
+  <si>
+    <t>2023-02-11 00:57:26</t>
+  </si>
+  <si>
+    <t>2023-02-11 18:30:50</t>
+  </si>
+  <si>
+    <t>2023-02-11 18:32:22</t>
+  </si>
+  <si>
+    <t>2023-02-11 18:33:22</t>
+  </si>
+  <si>
+    <t>2023-02-11 18:34:28</t>
+  </si>
+  <si>
+    <t>2023-02-11 18:35:21</t>
+  </si>
+  <si>
+    <t>2023-02-11 18:36:19</t>
+  </si>
+  <si>
+    <t>2023-02-11 18:37:12</t>
+  </si>
+  <si>
+    <t>2023-02-11 18:37:55</t>
+  </si>
+  <si>
+    <t>2023-02-11 18:39:00</t>
+  </si>
+  <si>
+    <t>2023-02-11 18:39:57</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -48,80 +100,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +394,224 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="21.6328125" customWidth="1"/>
+    <col min="2" max="2" width="19.90625" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" customWidth="1"/>
+    <col min="5" max="5" width="23.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>P_avg</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>P_best</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>N_avg</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>N_best</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2023-02-11 00:57:26</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
         <v>98.76543209876543</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>98.76543209876543</v>
       </c>
-      <c r="D2" t="n">
-        <v>49.99999999999999</v>
-      </c>
-      <c r="E2" t="n">
-        <v>57.99999999999999</v>
+      <c r="D2">
+        <v>49.999999999999993</v>
+      </c>
+      <c r="E2">
+        <v>57.999999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>86.419753086419746</v>
+      </c>
+      <c r="C3">
+        <v>86.419753086419746</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="C4">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="D4">
+        <v>20.857142857142861</v>
+      </c>
+      <c r="E4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>87.654320987654316</v>
+      </c>
+      <c r="C5">
+        <v>87.654320987654316</v>
+      </c>
+      <c r="D5">
+        <v>63.333333333333329</v>
+      </c>
+      <c r="E5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>87.654320987654316</v>
+      </c>
+      <c r="C6">
+        <v>87.654320987654316</v>
+      </c>
+      <c r="D6">
+        <v>28.93333333333333</v>
+      </c>
+      <c r="E6">
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>95.061728395061735</v>
+      </c>
+      <c r="C7">
+        <v>95.061728395061735</v>
+      </c>
+      <c r="D7">
+        <v>45.333333333333329</v>
+      </c>
+      <c r="E7">
+        <v>73.333333333333329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>87.654320987654316</v>
+      </c>
+      <c r="C8">
+        <v>87.654320987654316</v>
+      </c>
+      <c r="D8">
+        <v>21.866666666666671</v>
+      </c>
+      <c r="E8">
+        <v>85.333333333333343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>90.123456790123456</v>
+      </c>
+      <c r="C9">
+        <v>90.123456790123456</v>
+      </c>
+      <c r="D9">
+        <v>49.111111111111107</v>
+      </c>
+      <c r="E9">
+        <v>85.333333333333343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>69.753086419753089</v>
+      </c>
+      <c r="C10">
+        <v>97.53086419753086</v>
+      </c>
+      <c r="D10">
+        <v>76.333333333333329</v>
+      </c>
+      <c r="E10">
+        <v>90.666666666666657</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>46.502057613168724</v>
+      </c>
+      <c r="C11">
+        <v>60.493827160493829</v>
+      </c>
+      <c r="D11">
+        <v>27.466666666666669</v>
+      </c>
+      <c r="E11">
+        <v>80.666666666666657</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>59.876543209876537</v>
+      </c>
+      <c r="C12">
+        <v>74.074074074074076</v>
+      </c>
+      <c r="D12">
+        <v>34.400000000000013</v>
+      </c>
+      <c r="E12">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -474,36 +620,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Working code/log.xlsx
+++ b/Working code/log.xlsx
@@ -1,87 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>P_avg</t>
-  </si>
-  <si>
-    <t>P_best</t>
-  </si>
-  <si>
-    <t>N_avg</t>
-  </si>
-  <si>
-    <t>N_best</t>
-  </si>
-  <si>
-    <t>2023-02-11 00:57:26</t>
-  </si>
-  <si>
-    <t>2023-02-11 18:30:50</t>
-  </si>
-  <si>
-    <t>2023-02-11 18:32:22</t>
-  </si>
-  <si>
-    <t>2023-02-11 18:33:22</t>
-  </si>
-  <si>
-    <t>2023-02-11 18:34:28</t>
-  </si>
-  <si>
-    <t>2023-02-11 18:35:21</t>
-  </si>
-  <si>
-    <t>2023-02-11 18:36:19</t>
-  </si>
-  <si>
-    <t>2023-02-11 18:37:12</t>
-  </si>
-  <si>
-    <t>2023-02-11 18:37:55</t>
-  </si>
-  <si>
-    <t>2023-02-11 18:39:00</t>
-  </si>
-  <si>
-    <t>2023-02-11 18:39:57</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -100,13 +48,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -394,224 +409,450 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.6328125" customWidth="1"/>
-    <col min="2" max="2" width="19.90625" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
-    <col min="4" max="4" width="19.54296875" customWidth="1"/>
-    <col min="5" max="5" width="23.1796875" customWidth="1"/>
+    <col width="21.6328125" customWidth="1" min="1" max="1"/>
+    <col width="19.90625" customWidth="1" min="2" max="2"/>
+    <col width="18.26953125" customWidth="1" min="3" max="3"/>
+    <col width="19.54296875" customWidth="1" min="4" max="4"/>
+    <col width="23.1796875" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>P_avg</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>P_best</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>N_avg</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>N_best</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2023-02-11 00:57:26</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>98.76543209876543</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>98.76543209876543</v>
       </c>
-      <c r="D2">
-        <v>49.999999999999993</v>
-      </c>
-      <c r="E2">
-        <v>57.999999999999993</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>86.419753086419746</v>
-      </c>
-      <c r="C3">
-        <v>86.419753086419746</v>
-      </c>
-      <c r="D3">
+      <c r="D2" t="n">
+        <v>49.99999999999999</v>
+      </c>
+      <c r="E2" t="n">
+        <v>57.99999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2023-02-11 18:30:50</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>86.41975308641975</v>
+      </c>
+      <c r="C3" t="n">
+        <v>86.41975308641975</v>
+      </c>
+      <c r="D3" t="n">
         <v>100</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2023-02-11 18:32:22</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>98.76543209876543</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>98.76543209876543</v>
       </c>
-      <c r="D4">
-        <v>20.857142857142861</v>
-      </c>
-      <c r="E4">
+      <c r="D4" t="n">
+        <v>20.85714285714286</v>
+      </c>
+      <c r="E4" t="n">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>87.654320987654316</v>
-      </c>
-      <c r="C5">
-        <v>87.654320987654316</v>
-      </c>
-      <c r="D5">
-        <v>63.333333333333329</v>
-      </c>
-      <c r="E5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2023-02-11 18:33:22</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>87.65432098765432</v>
+      </c>
+      <c r="C5" t="n">
+        <v>87.65432098765432</v>
+      </c>
+      <c r="D5" t="n">
+        <v>63.33333333333333</v>
+      </c>
+      <c r="E5" t="n">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>87.654320987654316</v>
-      </c>
-      <c r="C6">
-        <v>87.654320987654316</v>
-      </c>
-      <c r="D6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023-02-11 18:34:28</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>87.65432098765432</v>
+      </c>
+      <c r="C6" t="n">
+        <v>87.65432098765432</v>
+      </c>
+      <c r="D6" t="n">
         <v>28.93333333333333</v>
       </c>
-      <c r="E6">
-        <v>83.333333333333343</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>95.061728395061735</v>
-      </c>
-      <c r="C7">
-        <v>95.061728395061735</v>
-      </c>
-      <c r="D7">
-        <v>45.333333333333329</v>
-      </c>
-      <c r="E7">
-        <v>73.333333333333329</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>87.654320987654316</v>
-      </c>
-      <c r="C8">
-        <v>87.654320987654316</v>
-      </c>
-      <c r="D8">
-        <v>21.866666666666671</v>
-      </c>
-      <c r="E8">
-        <v>85.333333333333343</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>90.123456790123456</v>
-      </c>
-      <c r="C9">
-        <v>90.123456790123456</v>
-      </c>
-      <c r="D9">
-        <v>49.111111111111107</v>
-      </c>
-      <c r="E9">
-        <v>85.333333333333343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>69.753086419753089</v>
-      </c>
-      <c r="C10">
+      <c r="E6" t="n">
+        <v>83.33333333333334</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2023-02-11 18:35:21</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>95.06172839506173</v>
+      </c>
+      <c r="C7" t="n">
+        <v>95.06172839506173</v>
+      </c>
+      <c r="D7" t="n">
+        <v>45.33333333333333</v>
+      </c>
+      <c r="E7" t="n">
+        <v>73.33333333333333</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023-02-11 18:36:19</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>87.65432098765432</v>
+      </c>
+      <c r="C8" t="n">
+        <v>87.65432098765432</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21.86666666666667</v>
+      </c>
+      <c r="E8" t="n">
+        <v>85.33333333333334</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2023-02-11 18:37:12</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>90.12345679012346</v>
+      </c>
+      <c r="C9" t="n">
+        <v>90.12345679012346</v>
+      </c>
+      <c r="D9" t="n">
+        <v>49.11111111111111</v>
+      </c>
+      <c r="E9" t="n">
+        <v>85.33333333333334</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2023-02-11 18:37:55</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>69.75308641975309</v>
+      </c>
+      <c r="C10" t="n">
         <v>97.53086419753086</v>
       </c>
-      <c r="D10">
-        <v>76.333333333333329</v>
-      </c>
-      <c r="E10">
-        <v>90.666666666666657</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>46.502057613168724</v>
-      </c>
-      <c r="C11">
-        <v>60.493827160493829</v>
-      </c>
-      <c r="D11">
-        <v>27.466666666666669</v>
-      </c>
-      <c r="E11">
-        <v>80.666666666666657</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>59.876543209876537</v>
-      </c>
-      <c r="C12">
-        <v>74.074074074074076</v>
-      </c>
-      <c r="D12">
-        <v>34.400000000000013</v>
-      </c>
-      <c r="E12">
+      <c r="D10" t="n">
+        <v>76.33333333333333</v>
+      </c>
+      <c r="E10" t="n">
+        <v>90.66666666666666</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2023-02-11 18:39:00</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>46.50205761316872</v>
+      </c>
+      <c r="C11" t="n">
+        <v>60.49382716049383</v>
+      </c>
+      <c r="D11" t="n">
+        <v>27.46666666666667</v>
+      </c>
+      <c r="E11" t="n">
+        <v>80.66666666666666</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2023-02-11 18:39:57</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>59.87654320987654</v>
+      </c>
+      <c r="C12" t="n">
+        <v>74.07407407407408</v>
+      </c>
+      <c r="D12" t="n">
+        <v>34.40000000000001</v>
+      </c>
+      <c r="E12" t="n">
         <v>90</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2023-02-13 14:58:22</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>100</v>
+      </c>
+      <c r="D13" t="n">
+        <v>39.16666666666666</v>
+      </c>
+      <c r="E13" t="n">
+        <v>58.66666666666666</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2023-02-13 14:59:36</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>63.58024691358024</v>
+      </c>
+      <c r="C14" t="n">
+        <v>71.60493827160494</v>
+      </c>
+      <c r="D14" t="n">
+        <v>53.33333333333334</v>
+      </c>
+      <c r="E14" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2023-02-13 15:00:36</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>59.67078189300411</v>
+      </c>
+      <c r="C15" t="n">
+        <v>80.24691358024691</v>
+      </c>
+      <c r="D15" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="E15" t="n">
+        <v>58.66666666666666</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2023-02-13 15:01:13</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>97.53086419753086</v>
+      </c>
+      <c r="C16" t="n">
+        <v>97.53086419753086</v>
+      </c>
+      <c r="D16" t="n">
+        <v>58.00000000000001</v>
+      </c>
+      <c r="E16" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2023-02-13 15:02:04</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>95.06172839506173</v>
+      </c>
+      <c r="C17" t="n">
+        <v>95.06172839506173</v>
+      </c>
+      <c r="D17" t="n">
+        <v>63.55555555555556</v>
+      </c>
+      <c r="E17" t="n">
+        <v>85.33333333333334</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2023-02-13 15:03:10</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="C18" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="D18" t="n">
+        <v>28.66666666666667</v>
+      </c>
+      <c r="E18" t="n">
+        <v>74.66666666666667</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2023-02-13 15:04:26</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="C19" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="D19" t="n">
+        <v>38.53333333333333</v>
+      </c>
+      <c r="E19" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2023-02-13 15:05:12</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>100</v>
+      </c>
+      <c r="D20" t="n">
+        <v>55.33333333333334</v>
+      </c>
+      <c r="E20" t="n">
+        <v>75.33333333333333</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2023-02-13 15:05:55</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>52.67489711934156</v>
+      </c>
+      <c r="C21" t="n">
+        <v>70.37037037037037</v>
+      </c>
+      <c r="D21" t="n">
+        <v>56.99999999999999</v>
+      </c>
+      <c r="E21" t="n">
+        <v>90.66666666666666</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2023-02-13 15:06:48</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>93.82716049382715</v>
+      </c>
+      <c r="C22" t="n">
+        <v>93.82716049382715</v>
+      </c>
+      <c r="D22" t="n">
+        <v>31.55555555555555</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -620,24 +861,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Working code/log.xlsx
+++ b/Working code/log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -853,6 +853,215 @@
       </c>
       <c r="E22" t="n">
         <v>86</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2023-02-13 16:02:08</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="C23" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="D23" t="n">
+        <v>57.33333333333334</v>
+      </c>
+      <c r="E23" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2023-02-13 16:02:33</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="C24" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="D24" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="E24" t="n">
+        <v>48.66666666666667</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2023-02-13 16:03:13</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>87.65432098765432</v>
+      </c>
+      <c r="C25" t="n">
+        <v>87.65432098765432</v>
+      </c>
+      <c r="D25" t="n">
+        <v>17.91666666666667</v>
+      </c>
+      <c r="E25" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2023-02-13 16:03:35</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>92.5925925925926</v>
+      </c>
+      <c r="C26" t="n">
+        <v>92.5925925925926</v>
+      </c>
+      <c r="D26" t="n">
+        <v>34.22222222222222</v>
+      </c>
+      <c r="E26" t="n">
+        <v>84.66666666666667</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2023-02-13 16:03:52</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>95.06172839506173</v>
+      </c>
+      <c r="C27" t="n">
+        <v>95.06172839506173</v>
+      </c>
+      <c r="D27" t="n">
+        <v>52.66666666666666</v>
+      </c>
+      <c r="E27" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2023-02-13 16:04:29</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>40.43209876543209</v>
+      </c>
+      <c r="C28" t="n">
+        <v>61.72839506172839</v>
+      </c>
+      <c r="D28" t="n">
+        <v>27.86666666666667</v>
+      </c>
+      <c r="E28" t="n">
+        <v>82.66666666666667</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2023-02-13 16:04:55</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>88.88888888888889</v>
+      </c>
+      <c r="C29" t="n">
+        <v>88.88888888888889</v>
+      </c>
+      <c r="D29" t="n">
+        <v>39</v>
+      </c>
+      <c r="E29" t="n">
+        <v>82.66666666666667</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2023-02-13 16:05:28</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="C30" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="D30" t="n">
+        <v>27.55555555555556</v>
+      </c>
+      <c r="E30" t="n">
+        <v>84.66666666666667</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2023-02-13 16:05:59</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>61.72839506172841</v>
+      </c>
+      <c r="C31" t="n">
+        <v>72.83950617283951</v>
+      </c>
+      <c r="D31" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="E31" t="n">
+        <v>82.66666666666667</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2023-02-13 16:06:16</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="C32" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="D32" t="n">
+        <v>55.00000000000001</v>
+      </c>
+      <c r="E32" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2023-02-13 16:42:42</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>56.79012345679012</v>
+      </c>
+      <c r="C33" t="n">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="D33" t="n">
+        <v>43.33333333333334</v>
+      </c>
+      <c r="E33" t="n">
+        <v>84.66666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/Working code/log.xlsx
+++ b/Working code/log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -1062,6 +1062,25 @@
       </c>
       <c r="E33" t="n">
         <v>84.66666666666667</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2023-02-13 19:36:15</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>90.12345679012346</v>
+      </c>
+      <c r="C34" t="n">
+        <v>90.12345679012346</v>
+      </c>
+      <c r="D34" t="n">
+        <v>47.66666666666667</v>
+      </c>
+      <c r="E34" t="n">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Working code/log.xlsx
+++ b/Working code/log.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -1081,6 +1081,196 @@
       </c>
       <c r="E34" t="n">
         <v>68</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2023-02-13 19:48:43</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>61.72839506172841</v>
+      </c>
+      <c r="C35" t="n">
+        <v>70.37037037037037</v>
+      </c>
+      <c r="D35" t="n">
+        <v>22.76190476190476</v>
+      </c>
+      <c r="E35" t="n">
+        <v>85.33333333333334</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2023-02-13 19:49:43</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>52.16049382716049</v>
+      </c>
+      <c r="C36" t="n">
+        <v>92.5925925925926</v>
+      </c>
+      <c r="D36" t="n">
+        <v>61.33333333333334</v>
+      </c>
+      <c r="E36" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2023-02-13 19:50:31</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>95.06172839506173</v>
+      </c>
+      <c r="C37" t="n">
+        <v>95.06172839506173</v>
+      </c>
+      <c r="D37" t="n">
+        <v>33.77777777777778</v>
+      </c>
+      <c r="E37" t="n">
+        <v>85.33333333333334</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2023-02-13 19:51:09</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>95.06172839506173</v>
+      </c>
+      <c r="C38" t="n">
+        <v>95.06172839506173</v>
+      </c>
+      <c r="D38" t="n">
+        <v>49.33333333333334</v>
+      </c>
+      <c r="E38" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2023-02-13 19:52:10</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>69.1358024691358</v>
+      </c>
+      <c r="C39" t="n">
+        <v>77.77777777777779</v>
+      </c>
+      <c r="D39" t="n">
+        <v>38.99999999999999</v>
+      </c>
+      <c r="E39" t="n">
+        <v>74.66666666666667</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2023-02-13 19:52:57</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>79.62962962962963</v>
+      </c>
+      <c r="C40" t="n">
+        <v>97.53086419753086</v>
+      </c>
+      <c r="D40" t="n">
+        <v>39.77777777777778</v>
+      </c>
+      <c r="E40" t="n">
+        <v>79.33333333333333</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2023-02-13 19:53:42</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="C41" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="D41" t="n">
+        <v>40.44444444444444</v>
+      </c>
+      <c r="E41" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2023-02-13 19:54:19</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>97.53086419753086</v>
+      </c>
+      <c r="C42" t="n">
+        <v>97.53086419753086</v>
+      </c>
+      <c r="D42" t="n">
+        <v>58.33333333333334</v>
+      </c>
+      <c r="E42" t="n">
+        <v>62.66666666666667</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2023-02-13 19:55:12</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>97.53086419753086</v>
+      </c>
+      <c r="C43" t="n">
+        <v>97.53086419753086</v>
+      </c>
+      <c r="D43" t="n">
+        <v>45.33333333333334</v>
+      </c>
+      <c r="E43" t="n">
+        <v>80.66666666666666</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2023-02-13 19:55:58</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="C44" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="D44" t="n">
+        <v>47.77777777777777</v>
+      </c>
+      <c r="E44" t="n">
+        <v>72.66666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/Working code/log.xlsx
+++ b/Working code/log.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -1271,6 +1271,196 @@
       </c>
       <c r="E44" t="n">
         <v>72.66666666666667</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2023-02-15 03:12:38</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>92.5925925925926</v>
+      </c>
+      <c r="C45" t="n">
+        <v>92.5925925925926</v>
+      </c>
+      <c r="D45" t="n">
+        <v>43.33333333333333</v>
+      </c>
+      <c r="E45" t="n">
+        <v>67.33333333333333</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2023-02-15 03:13:20</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>97.53086419753086</v>
+      </c>
+      <c r="C46" t="n">
+        <v>97.53086419753086</v>
+      </c>
+      <c r="D46" t="n">
+        <v>55.33333333333334</v>
+      </c>
+      <c r="E46" t="n">
+        <v>71.33333333333334</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2023-02-15 03:14:34</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>53.08641975308641</v>
+      </c>
+      <c r="C47" t="n">
+        <v>61.72839506172839</v>
+      </c>
+      <c r="D47" t="n">
+        <v>31.73333333333333</v>
+      </c>
+      <c r="E47" t="n">
+        <v>82.66666666666667</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2023-02-15 03:15:21</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>77.77777777777777</v>
+      </c>
+      <c r="C48" t="n">
+        <v>79.01234567901234</v>
+      </c>
+      <c r="D48" t="n">
+        <v>27.83333333333333</v>
+      </c>
+      <c r="E48" t="n">
+        <v>90.66666666666666</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2023-02-15 03:15:52</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>95.06172839506173</v>
+      </c>
+      <c r="C49" t="n">
+        <v>95.06172839506173</v>
+      </c>
+      <c r="D49" t="n">
+        <v>50.66666666666667</v>
+      </c>
+      <c r="E49" t="n">
+        <v>79.33333333333333</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2023-02-15 03:16:42</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>78.39506172839505</v>
+      </c>
+      <c r="C50" t="n">
+        <v>81.48148148148148</v>
+      </c>
+      <c r="D50" t="n">
+        <v>45.83333333333334</v>
+      </c>
+      <c r="E50" t="n">
+        <v>75.33333333333333</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2023-02-15 03:17:42</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>44.03292181069959</v>
+      </c>
+      <c r="C51" t="n">
+        <v>64.19753086419753</v>
+      </c>
+      <c r="D51" t="n">
+        <v>37.06666666666667</v>
+      </c>
+      <c r="E51" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2023-02-15 03:18:58</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>97.53086419753086</v>
+      </c>
+      <c r="C52" t="n">
+        <v>97.53086419753086</v>
+      </c>
+      <c r="D52" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E52" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2023-02-15 03:19:35</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>95.06172839506173</v>
+      </c>
+      <c r="C53" t="n">
+        <v>95.06172839506173</v>
+      </c>
+      <c r="D53" t="n">
+        <v>31.55555555555555</v>
+      </c>
+      <c r="E53" t="n">
+        <v>90.66666666666666</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2023-02-15 03:20:10</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>91.35802469135803</v>
+      </c>
+      <c r="C54" t="n">
+        <v>91.35802469135803</v>
+      </c>
+      <c r="D54" t="n">
+        <v>74</v>
+      </c>
+      <c r="E54" t="n">
+        <v>93.33333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/Working code/log.xlsx
+++ b/Working code/log.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -1460,6 +1460,101 @@
         <v>74</v>
       </c>
       <c r="E54" t="n">
+        <v>93.33333333333333</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2023-02-15 15:57:21</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>61.11111111111111</v>
+      </c>
+      <c r="C55" t="n">
+        <v>69.1358024691358</v>
+      </c>
+      <c r="D55" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E55" t="n">
+        <v>91.33333333333333</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2023-02-15 15:58:14</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>31.68724279835391</v>
+      </c>
+      <c r="C56" t="n">
+        <v>58.0246913580247</v>
+      </c>
+      <c r="D56" t="n">
+        <v>73.33333333333334</v>
+      </c>
+      <c r="E56" t="n">
+        <v>82.66666666666667</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2023-02-15 15:58:51</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>97.53086419753086</v>
+      </c>
+      <c r="C57" t="n">
+        <v>97.53086419753086</v>
+      </c>
+      <c r="D57" t="n">
+        <v>48.33333333333334</v>
+      </c>
+      <c r="E57" t="n">
+        <v>76.66666666666667</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2023-02-15 15:59:49</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>92.5925925925926</v>
+      </c>
+      <c r="C58" t="n">
+        <v>92.5925925925926</v>
+      </c>
+      <c r="D58" t="n">
+        <v>30.93333333333333</v>
+      </c>
+      <c r="E58" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2023-02-15 16:00:36</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>74.07407407407408</v>
+      </c>
+      <c r="C59" t="n">
+        <v>74.07407407407408</v>
+      </c>
+      <c r="D59" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="E59" t="n">
         <v>93.33333333333333</v>
       </c>
     </row>

--- a/Working code/log.xlsx
+++ b/Working code/log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -1556,6 +1556,101 @@
       </c>
       <c r="E59" t="n">
         <v>93.33333333333333</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2023-02-20 16:06:23</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>93.82716049382715</v>
+      </c>
+      <c r="C60" t="n">
+        <v>93.82716049382715</v>
+      </c>
+      <c r="D60" t="n">
+        <v>32.22222222222222</v>
+      </c>
+      <c r="E60" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2023-02-20 16:06:44</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>87.65432098765432</v>
+      </c>
+      <c r="C61" t="n">
+        <v>87.65432098765432</v>
+      </c>
+      <c r="D61" t="n">
+        <v>56.99999999999999</v>
+      </c>
+      <c r="E61" t="n">
+        <v>73.33333333333333</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2023-02-20 16:06:59</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="C62" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="D62" t="n">
+        <v>94</v>
+      </c>
+      <c r="E62" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2023-02-20 16:07:20</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>97.53086419753086</v>
+      </c>
+      <c r="C63" t="n">
+        <v>97.53086419753086</v>
+      </c>
+      <c r="D63" t="n">
+        <v>51.66666666666667</v>
+      </c>
+      <c r="E63" t="n">
+        <v>60.66666666666667</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2023-02-20 16:07:50</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>68.5185185185185</v>
+      </c>
+      <c r="C64" t="n">
+        <v>91.35802469135803</v>
+      </c>
+      <c r="D64" t="n">
+        <v>53.77777777777778</v>
+      </c>
+      <c r="E64" t="n">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Working code/log.xlsx
+++ b/Working code/log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -1651,6 +1651,101 @@
       </c>
       <c r="E64" t="n">
         <v>92</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2023-02-22 15:48:50</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>79.01234567901234</v>
+      </c>
+      <c r="C65" t="n">
+        <v>79.01234567901234</v>
+      </c>
+      <c r="D65" t="n">
+        <v>51.33333333333333</v>
+      </c>
+      <c r="E65" t="n">
+        <v>73.33333333333333</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2023-02-22 15:49:22</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="C66" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="D66" t="n">
+        <v>48.33333333333334</v>
+      </c>
+      <c r="E66" t="n">
+        <v>92.66666666666666</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2023-02-22 15:49:58</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>93.82716049382715</v>
+      </c>
+      <c r="C67" t="n">
+        <v>93.82716049382715</v>
+      </c>
+      <c r="D67" t="n">
+        <v>72.66666666666667</v>
+      </c>
+      <c r="E67" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2023-02-22 15:50:30</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="C68" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="D68" t="n">
+        <v>80</v>
+      </c>
+      <c r="E68" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2023-02-22 15:51:04</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="C69" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="D69" t="n">
+        <v>80.66666666666666</v>
+      </c>
+      <c r="E69" t="n">
+        <v>91.33333333333333</v>
       </c>
     </row>
   </sheetData>
